--- a/natmiOut/YoungD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>9.291284999281229</v>
+        <v>2058.152994666666</v>
       </c>
       <c r="H2">
-        <v>9.291284999281229</v>
+        <v>6174.458984</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9825919405339512</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.982591940533951</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.81170973297592</v>
+        <v>14.93036733333333</v>
       </c>
       <c r="N2">
-        <v>7.81170973297592</v>
+        <v>44.791102</v>
       </c>
       <c r="O2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="P2">
-        <v>0.1582480614646985</v>
+        <v>0.252612808865421</v>
       </c>
       <c r="Q2">
-        <v>72.58082146073835</v>
+        <v>30728.98023857337</v>
       </c>
       <c r="R2">
-        <v>72.58082146073835</v>
+        <v>276560.8221471604</v>
       </c>
       <c r="S2">
-        <v>0.1582480614646985</v>
+        <v>0.2482153100668061</v>
       </c>
       <c r="T2">
-        <v>0.1582480614646985</v>
+        <v>0.2482153100668061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>9.291284999281229</v>
+        <v>2058.152994666666</v>
       </c>
       <c r="H3">
-        <v>9.291284999281229</v>
+        <v>6174.458984</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9825919405339512</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.982591940533951</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.4791732516113</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>19.4791732516113</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="P3">
-        <v>0.3946052159349989</v>
+        <v>0.3432076230048887</v>
       </c>
       <c r="Q3">
-        <v>180.9865502310962</v>
+        <v>41749.34878564907</v>
       </c>
       <c r="R3">
-        <v>180.9865502310962</v>
+        <v>375744.1390708417</v>
       </c>
       <c r="S3">
-        <v>0.3946052159349989</v>
+        <v>0.3372330442944184</v>
       </c>
       <c r="T3">
-        <v>0.3946052159349989</v>
+        <v>0.3372330442944183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>9.291284999281229</v>
+        <v>2058.152994666666</v>
       </c>
       <c r="H4">
-        <v>9.291284999281229</v>
+        <v>6174.458984</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9825919405339512</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.982591940533951</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8619739761808</v>
+        <v>19.48898366666667</v>
       </c>
       <c r="N4">
-        <v>17.8619739761808</v>
+        <v>58.466951</v>
       </c>
       <c r="O4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="P4">
-        <v>0.3618443147895466</v>
+        <v>0.3297418473407271</v>
       </c>
       <c r="Q4">
-        <v>165.9606908624403</v>
+        <v>40111.31009655975</v>
       </c>
       <c r="R4">
-        <v>165.9606908624403</v>
+        <v>361001.7908690378</v>
       </c>
       <c r="S4">
-        <v>0.3618443147895466</v>
+        <v>0.3240016816537749</v>
       </c>
       <c r="T4">
-        <v>0.3618443147895466</v>
+        <v>0.3240016816537749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>9.291284999281229</v>
+        <v>2058.152994666666</v>
       </c>
       <c r="H5">
-        <v>9.291284999281229</v>
+        <v>6174.458984</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9825919405339512</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.982591940533951</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21084241521792</v>
+        <v>4.399549333333334</v>
       </c>
       <c r="N5">
-        <v>4.21084241521792</v>
+        <v>13.198648</v>
       </c>
       <c r="O5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="P5">
-        <v>0.08530240781075613</v>
+        <v>0.07443772078896321</v>
       </c>
       <c r="Q5">
-        <v>39.1241369668514</v>
+        <v>9054.945635583737</v>
       </c>
       <c r="R5">
-        <v>39.1241369668514</v>
+        <v>81494.51072025363</v>
       </c>
       <c r="S5">
-        <v>0.08530240781075613</v>
+        <v>0.07314190451895181</v>
       </c>
       <c r="T5">
-        <v>0.08530240781075613</v>
+        <v>0.07314190451895179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>36.46320333333333</v>
+      </c>
+      <c r="H6">
+        <v>109.38961</v>
+      </c>
+      <c r="I6">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="J6">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14.93036733333333</v>
+      </c>
+      <c r="N6">
+        <v>44.791102</v>
+      </c>
+      <c r="O6">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="P6">
+        <v>0.252612808865421</v>
+      </c>
+      <c r="Q6">
+        <v>544.409019916691</v>
+      </c>
+      <c r="R6">
+        <v>4899.681179250219</v>
+      </c>
+      <c r="S6">
+        <v>0.004397498798614903</v>
+      </c>
+      <c r="T6">
+        <v>0.004397498798614902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>36.46320333333333</v>
+      </c>
+      <c r="H7">
+        <v>109.38961</v>
+      </c>
+      <c r="I7">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="J7">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.28486166666667</v>
+      </c>
+      <c r="N7">
+        <v>60.854585</v>
+      </c>
+      <c r="O7">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="P7">
+        <v>0.3432076230048887</v>
+      </c>
+      <c r="Q7">
+        <v>739.6510355402056</v>
+      </c>
+      <c r="R7">
+        <v>6656.85931986185</v>
+      </c>
+      <c r="S7">
+        <v>0.005974578710470409</v>
+      </c>
+      <c r="T7">
+        <v>0.005974578710470408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>36.46320333333333</v>
+      </c>
+      <c r="H8">
+        <v>109.38961</v>
+      </c>
+      <c r="I8">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="J8">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>19.48898366666667</v>
+      </c>
+      <c r="N8">
+        <v>58.466951</v>
+      </c>
+      <c r="O8">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="P8">
+        <v>0.3297418473407271</v>
+      </c>
+      <c r="Q8">
+        <v>710.6307741976789</v>
+      </c>
+      <c r="R8">
+        <v>6395.676967779111</v>
+      </c>
+      <c r="S8">
+        <v>0.005740165686952208</v>
+      </c>
+      <c r="T8">
+        <v>0.005740165686952207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>36.46320333333333</v>
+      </c>
+      <c r="H9">
+        <v>109.38961</v>
+      </c>
+      <c r="I9">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="J9">
+        <v>0.01740805946604894</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.399549333333334</v>
+      </c>
+      <c r="N9">
+        <v>13.198648</v>
+      </c>
+      <c r="O9">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="P9">
+        <v>0.07443772078896321</v>
+      </c>
+      <c r="Q9">
+        <v>160.4216619163645</v>
+      </c>
+      <c r="R9">
+        <v>1443.79495724728</v>
+      </c>
+      <c r="S9">
+        <v>0.001295816270011419</v>
+      </c>
+      <c r="T9">
+        <v>0.001295816270011419</v>
       </c>
     </row>
   </sheetData>
